--- a/assets/results/RQ2-Results.xlsx
+++ b/assets/results/RQ2-Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/AnonGithub/anonymousResearcher24.github.io/assets/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF12285-6B99-604D-85AD-4345082A1FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2E8F6E-60D8-F14C-B72C-133236981962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,9 +253,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9FCA10-753F-1D40-984B-130B391CDB1A}">
   <dimension ref="A1:U297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T251" sqref="L251:T251"/>
     </sheetView>
   </sheetViews>
@@ -6566,28 +6563,28 @@
         <v>97025</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" ref="D90:D121" si="27">(B90-C90)/B90</f>
+        <f t="shared" ref="D90:D120" si="27">(B90-C90)/B90</f>
         <v>0.38527186791185675</v>
       </c>
       <c r="E90">
         <v>5296</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" ref="F90:F121" si="28">(B90-E90)/B90</f>
+        <f t="shared" ref="F90:F120" si="28">(B90-E90)/B90</f>
         <v>0.96644575946880895</v>
       </c>
       <c r="G90">
         <v>117</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" ref="H90:H121" si="29">(B90-G90)/B90</f>
+        <f t="shared" ref="H90:H120" si="29">(B90-G90)/B90</f>
         <v>0.99925871485231321</v>
       </c>
       <c r="I90">
         <v>1280</v>
       </c>
       <c r="J90" s="4">
-        <f t="shared" ref="J90:J121" si="30">(B90-I90)/B90</f>
+        <f t="shared" ref="J90:J120" si="30">(B90-I90)/B90</f>
         <v>0.99189021376889641</v>
       </c>
       <c r="L90">
@@ -6604,21 +6601,21 @@
         <v>1431</v>
       </c>
       <c r="P90" s="4">
-        <f t="shared" ref="P90:P121" si="31">(L90-O90)/L90</f>
+        <f t="shared" ref="P90:P120" si="31">(L90-O90)/L90</f>
         <v>0.98994914873293249</v>
       </c>
       <c r="Q90" s="2">
         <v>77</v>
       </c>
       <c r="R90" s="4">
-        <f t="shared" ref="R90:R121" si="32">(L90-Q90)/L90</f>
+        <f t="shared" ref="R90:R120" si="32">(L90-Q90)/L90</f>
         <v>0.99945917851323252</v>
       </c>
       <c r="S90">
         <v>1192</v>
       </c>
       <c r="T90" s="4">
-        <f t="shared" ref="T90:T121" si="33">(L90-S90)/L90</f>
+        <f t="shared" ref="T90:T120" si="33">(L90-S90)/L90</f>
         <v>0.99162780243861326</v>
       </c>
     </row>
@@ -7133,7 +7130,7 @@
         <v>51575</v>
       </c>
       <c r="N98" s="4">
-        <f t="shared" ref="N98:N129" si="34">(L98-M98)/L98</f>
+        <f t="shared" ref="N98:N120" si="34">(L98-M98)/L98</f>
         <v>0.35470753831717233</v>
       </c>
       <c r="O98" s="2">
@@ -10864,28 +10861,28 @@
         <v>60</v>
       </c>
       <c r="D154" s="4">
-        <f t="shared" ref="D154:D185" si="45">(B154-C154)/B154</f>
+        <f t="shared" ref="D154:D170" si="45">(B154-C154)/B154</f>
         <v>0.67213114754098358</v>
       </c>
       <c r="E154">
         <v>20</v>
       </c>
       <c r="F154" s="4">
-        <f t="shared" ref="F154:F185" si="46">(B154-E154)/B154</f>
+        <f t="shared" ref="F154:F170" si="46">(B154-E154)/B154</f>
         <v>0.89071038251366119</v>
       </c>
       <c r="G154">
         <v>19</v>
       </c>
       <c r="H154" s="4">
-        <f t="shared" ref="H154:H185" si="47">(B154-G154)/B154</f>
+        <f t="shared" ref="H154:H170" si="47">(B154-G154)/B154</f>
         <v>0.89617486338797814</v>
       </c>
       <c r="I154">
         <v>38</v>
       </c>
       <c r="J154" s="4">
-        <f t="shared" ref="J154:J185" si="48">(B154-I154)/B154</f>
+        <f t="shared" ref="J154:J170" si="48">(B154-I154)/B154</f>
         <v>0.79234972677595628</v>
       </c>
       <c r="L154" s="8">
@@ -10895,28 +10892,28 @@
         <v>55</v>
       </c>
       <c r="N154" s="4">
-        <f t="shared" ref="N154:N185" si="49">(L154-M154)/L154</f>
+        <f t="shared" ref="N154:N170" si="49">(L154-M154)/L154</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O154" s="2">
         <v>7</v>
       </c>
       <c r="P154" s="4">
-        <f t="shared" ref="P154:P185" si="50">(L154-O154)/L154</f>
+        <f t="shared" ref="P154:P170" si="50">(L154-O154)/L154</f>
         <v>0.8833333333333333</v>
       </c>
       <c r="Q154" s="2">
         <v>3</v>
       </c>
       <c r="R154" s="4">
-        <f t="shared" ref="R154:R185" si="51">(L154-Q154)/L154</f>
+        <f t="shared" ref="R154:R170" si="51">(L154-Q154)/L154</f>
         <v>0.95</v>
       </c>
       <c r="S154">
         <v>27</v>
       </c>
       <c r="T154" s="4">
-        <f t="shared" ref="T154:T185" si="52">(L154-S154)/L154</f>
+        <f t="shared" ref="T154:T170" si="52">(L154-S154)/L154</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -14224,28 +14221,28 @@
         <v>5760</v>
       </c>
       <c r="D204" s="4">
-        <f t="shared" ref="D204:D235" si="63">(B204-C204)/B204</f>
+        <f t="shared" ref="D204:D234" si="63">(B204-C204)/B204</f>
         <v>0.3303882817949314</v>
       </c>
       <c r="E204">
         <v>2</v>
       </c>
       <c r="F204" s="4">
-        <f t="shared" ref="F204:F235" si="64">(B204-E204)/B204</f>
+        <f t="shared" ref="F204:F234" si="64">(B204-E204)/B204</f>
         <v>0.99976749593117875</v>
       </c>
       <c r="G204">
         <v>1</v>
       </c>
       <c r="H204" s="4">
-        <f t="shared" ref="H204:H235" si="65">(B204-G204)/B204</f>
+        <f t="shared" ref="H204:H234" si="65">(B204-G204)/B204</f>
         <v>0.99988374796558943</v>
       </c>
       <c r="I204">
         <v>7</v>
       </c>
       <c r="J204" s="4">
-        <f t="shared" ref="J204:J235" si="66">(B204-I204)/B204</f>
+        <f t="shared" ref="J204:J234" si="66">(B204-I204)/B204</f>
         <v>0.9991862357591258</v>
       </c>
       <c r="L204">
@@ -14255,28 +14252,28 @@
         <v>5762</v>
       </c>
       <c r="N204" s="4">
-        <f t="shared" ref="N204:N235" si="67">(L204-M204)/L204</f>
+        <f t="shared" ref="N204:N234" si="67">(L204-M204)/L204</f>
         <v>0.32710498657012727</v>
       </c>
       <c r="O204" s="2">
         <v>4</v>
       </c>
       <c r="P204" s="4">
-        <f t="shared" ref="P204:P235" si="68">(L204-O204)/L204</f>
+        <f t="shared" ref="P204:P234" si="68">(L204-O204)/L204</f>
         <v>0.99953287399275959</v>
       </c>
       <c r="Q204" s="2">
         <v>3</v>
       </c>
       <c r="R204" s="4">
-        <f t="shared" ref="R204:R235" si="69">(L204-Q204)/L204</f>
+        <f t="shared" ref="R204:R234" si="69">(L204-Q204)/L204</f>
         <v>0.99964965549456963</v>
       </c>
       <c r="S204">
         <v>9</v>
       </c>
       <c r="T204" s="4">
-        <f t="shared" ref="T204:T235" si="70">(L204-S204)/L204</f>
+        <f t="shared" ref="T204:T234" si="70">(L204-S204)/L204</f>
         <v>0.99894896648370901</v>
       </c>
     </row>
@@ -17373,65 +17370,65 @@
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A251" s="21">
+      <c r="A251">
         <v>25</v>
       </c>
-      <c r="B251" s="22">
+      <c r="B251" s="8">
         <v>1095</v>
       </c>
-      <c r="C251" s="21">
+      <c r="C251">
         <v>986</v>
       </c>
       <c r="D251" s="19">
         <f t="shared" si="73"/>
         <v>9.9543378995433793E-2</v>
       </c>
-      <c r="E251" s="21">
+      <c r="E251">
         <v>53</v>
       </c>
       <c r="F251" s="19">
         <f t="shared" si="74"/>
         <v>0.95159817351598175</v>
       </c>
-      <c r="G251" s="21">
+      <c r="G251">
         <v>14</v>
       </c>
       <c r="H251" s="19">
         <f t="shared" si="75"/>
         <v>0.9872146118721461</v>
       </c>
-      <c r="I251" s="21">
+      <c r="I251">
         <v>67</v>
       </c>
       <c r="J251" s="19">
         <f t="shared" si="76"/>
         <v>0.93881278538812785</v>
       </c>
-      <c r="L251" s="22">
+      <c r="L251" s="8">
         <v>1425</v>
       </c>
-      <c r="M251" s="21">
+      <c r="M251">
         <v>824</v>
       </c>
       <c r="N251" s="19">
         <f t="shared" si="77"/>
         <v>0.42175438596491227</v>
       </c>
-      <c r="O251" s="23">
+      <c r="O251" s="2">
         <v>213</v>
       </c>
       <c r="P251" s="19">
         <f t="shared" si="78"/>
         <v>0.85052631578947369</v>
       </c>
-      <c r="Q251" s="23">
+      <c r="Q251" s="2">
         <v>11</v>
       </c>
       <c r="R251" s="19">
         <f t="shared" si="79"/>
         <v>0.99228070175438599</v>
       </c>
-      <c r="S251" s="21">
+      <c r="S251">
         <v>47</v>
       </c>
       <c r="T251" s="19">
